--- a/2024-10-24/2.Good-RS3 Bad-RS6.xlsx
+++ b/2024-10-24/2.Good-RS3 Bad-RS6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Symbol</t>
   </si>
@@ -82,6 +82,9 @@
     <t>INFIBEAM</t>
   </si>
   <si>
+    <t>NECLIFE</t>
+  </si>
+  <si>
     <t>SCHNEIDER</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>Computer Sftwr-Enterprse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical-Generic Drugs   </t>
   </si>
   <si>
     <t>Electrical-Power/Equipmt</t>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,13 +567,13 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>3860.3</v>
+        <v>3875</v>
       </c>
       <c r="D2">
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>126</v>
@@ -576,7 +582,7 @@
         <v>16151.18</v>
       </c>
       <c r="H2">
-        <v>-29.66</v>
+        <v>-29.39</v>
       </c>
       <c r="I2">
         <v>103.58</v>
@@ -597,7 +603,7 @@
         <v>403064</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -611,13 +617,13 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>368.75</v>
+        <v>369.55</v>
       </c>
       <c r="D3">
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>92</v>
@@ -626,7 +632,7 @@
         <v>7331.96</v>
       </c>
       <c r="H3">
-        <v>-18.17</v>
+        <v>-18</v>
       </c>
       <c r="I3">
         <v>72.03</v>
@@ -647,7 +653,7 @@
         <v>389019</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -661,13 +667,13 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>474.4</v>
+        <v>462.5</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>162</v>
@@ -676,7 +682,7 @@
         <v>688.79</v>
       </c>
       <c r="H4">
-        <v>-29.02</v>
+        <v>-30.8</v>
       </c>
       <c r="I4">
         <v>93.39</v>
@@ -697,7 +703,7 @@
         <v>47663</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
@@ -711,13 +717,13 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1647.1</v>
+        <v>1654.95</v>
       </c>
       <c r="D5">
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>143</v>
@@ -726,7 +732,7 @@
         <v>13499.86</v>
       </c>
       <c r="H5">
-        <v>-25.87</v>
+        <v>-25.52</v>
       </c>
       <c r="I5">
         <v>61.56</v>
@@ -747,7 +753,7 @@
         <v>988724</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -761,13 +767,13 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>782.7</v>
+        <v>770</v>
       </c>
       <c r="D6">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>128</v>
@@ -776,7 +782,7 @@
         <v>3442.48</v>
       </c>
       <c r="H6">
-        <v>-27.73</v>
+        <v>-28.9</v>
       </c>
       <c r="I6">
         <v>86.20999999999999</v>
@@ -797,7 +803,7 @@
         <v>67440</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
@@ -811,13 +817,13 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>648.7</v>
+        <v>656.45</v>
       </c>
       <c r="D7">
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>128</v>
@@ -826,7 +832,7 @@
         <v>3600.35</v>
       </c>
       <c r="H7">
-        <v>-26.28</v>
+        <v>-25.4</v>
       </c>
       <c r="I7">
         <v>72.31999999999999</v>
@@ -847,7 +853,7 @@
         <v>87038</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -861,13 +867,13 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>27.21</v>
+        <v>27.2</v>
       </c>
       <c r="D8">
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>108</v>
@@ -876,7 +882,7 @@
         <v>7670.14</v>
       </c>
       <c r="H8">
-        <v>-32.82</v>
+        <v>-32.84</v>
       </c>
       <c r="I8">
         <v>62.57</v>
@@ -897,7 +903,7 @@
         <v>12933912</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8" t="b">
         <v>1</v>
@@ -911,43 +917,43 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>757.35</v>
+        <v>34.74</v>
       </c>
       <c r="D9">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G9">
-        <v>18262.76</v>
+        <v>766.52</v>
       </c>
       <c r="H9">
-        <v>-22.72</v>
+        <v>-38.51</v>
       </c>
       <c r="I9">
-        <v>154.6</v>
+        <v>58.98</v>
       </c>
       <c r="J9">
-        <v>-5.73</v>
+        <v>-16.16</v>
       </c>
       <c r="K9">
-        <v>4.13</v>
+        <v>-3.43</v>
       </c>
       <c r="L9">
         <v>41</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N9">
-        <v>434805</v>
+        <v>3992974</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
@@ -961,43 +967,43 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>1447</v>
+        <v>756</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
       <c r="F10">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>8676.9</v>
+        <v>18262.76</v>
       </c>
       <c r="H10">
-        <v>-30.43</v>
+        <v>-22.86</v>
       </c>
       <c r="I10">
-        <v>128.49</v>
+        <v>154.6</v>
       </c>
       <c r="J10">
-        <v>-4.17</v>
+        <v>-5.73</v>
       </c>
       <c r="K10">
-        <v>5.92</v>
+        <v>4.13</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N10">
-        <v>140635</v>
+        <v>434805</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
@@ -1011,46 +1017,46 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>218.84</v>
+        <v>1438</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F11">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G11">
-        <v>63969.27</v>
+        <v>8676.9</v>
       </c>
       <c r="H11">
-        <v>-23.58</v>
+        <v>-30.87</v>
       </c>
       <c r="I11">
-        <v>46.3</v>
+        <v>128.49</v>
       </c>
       <c r="J11">
-        <v>-2.08</v>
+        <v>-4.17</v>
       </c>
       <c r="K11">
-        <v>-6.89</v>
+        <v>5.92</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>12159558</v>
+        <v>140635</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1061,43 +1067,43 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>7978</v>
+        <v>217.5</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G12">
-        <v>68011.00999999999</v>
+        <v>63969.27</v>
       </c>
       <c r="H12">
-        <v>-19.7</v>
+        <v>-24.04</v>
       </c>
       <c r="I12">
-        <v>49.76</v>
+        <v>46.3</v>
       </c>
       <c r="J12">
-        <v>1.35</v>
+        <v>-2.08</v>
       </c>
       <c r="K12">
-        <v>7.57</v>
+        <v>-6.89</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N12">
-        <v>82309</v>
+        <v>12159558</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -1111,45 +1117,95 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>3766.9</v>
+        <v>7980</v>
       </c>
       <c r="D13">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>131</v>
+      </c>
+      <c r="G13">
+        <v>68011.00999999999</v>
+      </c>
+      <c r="H13">
+        <v>-19.68</v>
+      </c>
+      <c r="I13">
+        <v>49.76</v>
+      </c>
+      <c r="J13">
+        <v>1.35</v>
+      </c>
+      <c r="K13">
+        <v>7.57</v>
+      </c>
+      <c r="L13">
+        <v>63</v>
+      </c>
+      <c r="M13">
+        <v>39</v>
+      </c>
+      <c r="N13">
+        <v>82309</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>3692</v>
+      </c>
+      <c r="D14">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
         <v>68</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>60600.62</v>
       </c>
-      <c r="H13">
-        <v>-23.92</v>
-      </c>
-      <c r="I13">
+      <c r="H14">
+        <v>-25.43</v>
+      </c>
+      <c r="I14">
         <v>48.42</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>-1.06</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>7.83</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>59</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>38</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>79072</v>
       </c>
-      <c r="O13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" t="b">
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="b">
         <v>0</v>
       </c>
     </row>
